--- a/mapping_file.xlsx
+++ b/mapping_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\United_Orthopedic\法規\UO_MDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13782E6C-55EC-4625-97F0-BFAF1850ED9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66DB2F-DC58-4354-9E95-DD3C77E5707B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{FA11E933-D82C-4A56-B8DC-3A2760D3680D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>CSDT技術文件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,47 +63,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Worst case device selection</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B-Test report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UOC-RD-TR-20023_v0 Packaging test_10y accelerated_Gamma
-UOC-RD-TR-21013_v0 Packaging test_5y real time_EO
-UOC-RD-TR-21014_v0 Packaging test_5y real time_Gamma
-UOC-RD-TR-22024_v4 Packaging test_8y accelerated_EO SSC
-UOC-RD-TR-23022_v1 Packaging test_8y accelerated_EO AST
-8. 選擇測試樣品的理由/Rationale for Test Article Selection</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -809,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABF4BEE-705B-43CE-85AC-FF4EDCE770C3}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -871,18 +831,18 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -890,38 +850,38 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -933,61 +893,61 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -995,44 +955,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
